--- a/data/trans_dic/P21D_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Clase-trans_dic.xlsx
@@ -699,7 +699,7 @@
         <v>0.001813496504847828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
     </row>
     <row r="14">
@@ -726,10 +726,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="16">
@@ -750,7 +750,7 @@
         <v>0.00336795451155172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.003140045994389978</v>
+        <v>0.003140045994389976</v>
       </c>
     </row>
     <row r="17">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0008718747136185802</v>
+        <v>0.0008446725050886319</v>
       </c>
     </row>
     <row r="18">
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01579273830294804</v>
+        <v>0.01566294321845637</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01065714656309341</v>
+        <v>0.01291890190991238</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.009127176120779819</v>
+        <v>0.007803529395209577</v>
       </c>
     </row>
     <row r="19">
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0003382866349231094</v>
+        <v>0.0003394097155894653</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0002325600501772084</v>
+        <v>0.0002228204171132357</v>
       </c>
     </row>
     <row r="24">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.002713538953526821</v>
+        <v>0.002619814742307905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.00327524646453887</v>
+        <v>0.003374249078117158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.002250811930378354</v>
+        <v>0.002041296677732298</v>
       </c>
     </row>
     <row r="25">
@@ -1222,10 +1222,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="20">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4201</v>
+        <v>4166</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4147</v>
+        <v>5027</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5979</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="24">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>738</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4139</v>
+        <v>3996</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5403</v>
+        <v>5566</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7147</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="32">
